--- a/biology/Botanique/Tragopogon_dubius/Tragopogon_dubius.xlsx
+++ b/biology/Botanique/Tragopogon_dubius/Tragopogon_dubius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tragopogon dubius, le Salsifis pâle[2], Salsifis majeur ou Salsifis douteux, est une espèce de plantes à fleurs de la famille des Astéracées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tragopogon dubius, le Salsifis pâle, Salsifis majeur ou Salsifis douteux, est une espèce de plantes à fleurs de la famille des Astéracées.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France, elle est classée comme non préoccupante [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France, elle est classée comme non préoccupante .
 Toutefois, localement, l'espèce est considérée comme vulnérable (VU) en Picardie, Haute-Normandie, Basse-Normandie, Champagne-Ardennes ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Limousin.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (27 mai 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (27 mai 2016) :
 Tragopogon dubius subsp. desertorum (Lindem.) Tzvelev
 Tragopogon dubius subsp. major (Jacq.) Vollm.</t>
         </is>
